--- a/02_output/08_SHI/shi_total_rq_no_CNratio.xlsx
+++ b/02_output/08_SHI/shi_total_rq_no_CNratio.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">sample_name</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">C%_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C/N_normal</t>
   </si>
   <si>
     <t xml:space="preserve">mean_BD_g_cm3</t>
@@ -533,22 +530,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0.436659156335705</v>
@@ -563,33 +557,30 @@
         <v>0.288786482334869</v>
       </c>
       <c r="I2" t="n">
-        <v>0.501360032873307</v>
+        <v>0.823049844090184</v>
       </c>
       <c r="J2" t="n">
-        <v>0.823049844090184</v>
+        <v>0.66484268125855</v>
       </c>
       <c r="K2" t="n">
-        <v>0.66484268125855</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.73165927745167</v>
+        <v>4.23029924457837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>0.558932636410322</v>
@@ -604,33 +595,30 @@
         <v>0.498617511520737</v>
       </c>
       <c r="I3" t="n">
-        <v>0.535569319582669</v>
+        <v>0.875233113486468</v>
       </c>
       <c r="J3" t="n">
-        <v>0.875233113486468</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="K3" t="n">
-        <v>0.837209302325581</v>
+        <v>0.3</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.21035213790839</v>
+        <v>4.67478281832572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
         <v>0.412088263526153</v>
@@ -645,33 +633,30 @@
         <v>0.340092165898618</v>
       </c>
       <c r="I4" t="n">
-        <v>0.699843651342494</v>
+        <v>0.713591692935286</v>
       </c>
       <c r="J4" t="n">
-        <v>0.713591692935286</v>
+        <v>0.995896032831737</v>
       </c>
       <c r="K4" t="n">
-        <v>0.995896032831737</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.78661819853137</v>
+        <v>4.08677454718887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>0.396293186530942</v>
@@ -686,33 +671,30 @@
         <v>0.48294930875576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.599107008629243</v>
+        <v>0.95550700168835</v>
       </c>
       <c r="J5" t="n">
-        <v>0.95550700168835</v>
+        <v>0.692202462380301</v>
       </c>
       <c r="K5" t="n">
-        <v>0.692202462380301</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.76857647155891</v>
+        <v>4.16946946292967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>0.489431893971495</v>
@@ -727,33 +709,30 @@
         <v>0.557603686635945</v>
       </c>
       <c r="I6" t="n">
-        <v>0.581626026038065</v>
+        <v>0.899116863697958</v>
       </c>
       <c r="J6" t="n">
-        <v>0.899116863697958</v>
+        <v>0.915184678522572</v>
       </c>
       <c r="K6" t="n">
-        <v>0.915184678522572</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.58775423561541</v>
+        <v>5.00612820957735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>0.29217893827271</v>
@@ -768,33 +747,30 @@
         <v>0.303533026113671</v>
       </c>
       <c r="I7" t="n">
-        <v>0.556655341411347</v>
+        <v>0.7335595288018</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7335595288018</v>
+        <v>0.696306429548564</v>
       </c>
       <c r="K7" t="n">
-        <v>0.696306429548564</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.50687503850626</v>
+        <v>2.95021969709491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>0.37141991201679</v>
@@ -809,33 +785,30 @@
         <v>0.453456221198157</v>
       </c>
       <c r="I8" t="n">
-        <v>0.565822784810127</v>
+        <v>0.814993646759848</v>
       </c>
       <c r="J8" t="n">
-        <v>0.814993646759848</v>
+        <v>0.741450068399453</v>
       </c>
       <c r="K8" t="n">
-        <v>0.741450068399453</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5.37019105683527</v>
+        <v>4.80436827202514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>0.341328292914024</v>
@@ -850,33 +823,30 @@
         <v>0.404608294930876</v>
       </c>
       <c r="I9" t="n">
-        <v>0.548696593403289</v>
+        <v>0.810394204851752</v>
       </c>
       <c r="J9" t="n">
-        <v>0.810394204851752</v>
+        <v>0.686730506155951</v>
       </c>
       <c r="K9" t="n">
-        <v>0.686730506155951</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.78126224263721</v>
+        <v>3.23256564923392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
         <v>0.47458723052616</v>
@@ -891,33 +861,30 @@
         <v>0.505069124423963</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5625454764124</v>
+        <v>0.843947368421053</v>
       </c>
       <c r="J10" t="n">
-        <v>0.843947368421053</v>
+        <v>0.782489740082079</v>
       </c>
       <c r="K10" t="n">
-        <v>0.782489740082079</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5.57034416273023</v>
+        <v>5.00779868631783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
         <v>0.528443681945208</v>
@@ -932,33 +899,30 @@
         <v>0.36036866359447</v>
       </c>
       <c r="I11" t="n">
-        <v>0.503905709732704</v>
+        <v>0.837847252460159</v>
       </c>
       <c r="J11" t="n">
-        <v>0.837847252460159</v>
+        <v>0.759233926128591</v>
       </c>
       <c r="K11" t="n">
-        <v>0.759233926128591</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5.00911422505605</v>
+        <v>4.50520851532334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
         <v>0.437484286486175</v>
@@ -973,33 +937,30 @@
         <v>0.313364055299539</v>
       </c>
       <c r="I12" t="n">
-        <v>0.51187648456057</v>
+        <v>0.867733934611049</v>
       </c>
       <c r="J12" t="n">
-        <v>0.867733934611049</v>
+        <v>0.622435020519836</v>
       </c>
       <c r="K12" t="n">
-        <v>0.622435020519836</v>
+        <v>0.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4.0958224885854</v>
+        <v>3.58394600402483</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
         <v>0.264529712082227</v>
@@ -1014,33 +975,30 @@
         <v>0.299539170506912</v>
       </c>
       <c r="I13" t="n">
-        <v>0.561165398839412</v>
+        <v>0.767745281889638</v>
       </c>
       <c r="J13" t="n">
-        <v>0.767745281889638</v>
+        <v>0.679890560875513</v>
       </c>
       <c r="K13" t="n">
-        <v>0.679890560875513</v>
+        <v>0.3</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.4841058207474</v>
+        <v>2.92294042190799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>0.335092189255623</v>
@@ -1055,33 +1013,30 @@
         <v>0.261751152073733</v>
       </c>
       <c r="I14" t="n">
-        <v>0.532325084939415</v>
+        <v>0.750058470413971</v>
       </c>
       <c r="J14" t="n">
-        <v>0.750058470413971</v>
+        <v>0.715458276333789</v>
       </c>
       <c r="K14" t="n">
-        <v>0.715458276333789</v>
+        <v>0.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.65277411589753</v>
+        <v>3.12044903095811</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v>0.383318262297701</v>
@@ -1096,33 +1051,30 @@
         <v>0.459907834101383</v>
       </c>
       <c r="I15" t="n">
-        <v>0.566848071198773</v>
+        <v>0.854554336723364</v>
       </c>
       <c r="J15" t="n">
-        <v>0.854554336723364</v>
+        <v>0.755129958960328</v>
       </c>
       <c r="K15" t="n">
-        <v>0.755129958960328</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5.38383519650989</v>
+        <v>4.81698712531111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
         <v>0.25023665757734</v>
@@ -1137,33 +1089,30 @@
         <v>0.248847926267281</v>
       </c>
       <c r="I16" t="n">
-        <v>0.539799753450194</v>
+        <v>0.681784360273536</v>
       </c>
       <c r="J16" t="n">
-        <v>0.681784360273536</v>
+        <v>0.734610123119015</v>
       </c>
       <c r="K16" t="n">
-        <v>0.734610123119015</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.92966082097088</v>
+        <v>2.38986106752068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
         <v>0.497904096357347</v>
@@ -1178,33 +1127,30 @@
         <v>0.419047619047619</v>
       </c>
       <c r="I17" t="n">
-        <v>0.54499934854726</v>
+        <v>0.844577096958259</v>
       </c>
       <c r="J17" t="n">
-        <v>0.844577096958259</v>
+        <v>0.763337893296854</v>
       </c>
       <c r="K17" t="n">
-        <v>0.763337893296854</v>
+        <v>0.7</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5.31361042475778</v>
+        <v>4.76861107621052</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
         <v>0.814235191831465</v>
@@ -1219,33 +1165,30 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.635999278390811</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.961696306429549</v>
       </c>
       <c r="K18" t="n">
-        <v>0.961696306429549</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6.94954200181203</v>
+        <v>6.31354272342122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
         <v>0.514783457048497</v>
@@ -1260,33 +1203,30 @@
         <v>0.460829493087558</v>
       </c>
       <c r="I19" t="n">
-        <v>0.556736522445052</v>
+        <v>0.852207803711413</v>
       </c>
       <c r="J19" t="n">
-        <v>0.852207803711413</v>
+        <v>0.861833105335157</v>
       </c>
       <c r="K19" t="n">
-        <v>0.861833105335157</v>
+        <v>0.7</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.52355939039858</v>
+        <v>4.96682286795353</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
         <v>0.492671103260664</v>
@@ -1301,33 +1241,30 @@
         <v>0.415360983102919</v>
       </c>
       <c r="I20" t="n">
-        <v>0.543888872184973</v>
+        <v>0.826652919190618</v>
       </c>
       <c r="J20" t="n">
-        <v>0.826652919190618</v>
+        <v>0.74281805745554</v>
       </c>
       <c r="K20" t="n">
-        <v>0.74281805745554</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4.055381841158</v>
+        <v>3.51149296897303</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
         <v>0.397728061428695</v>
@@ -1342,33 +1279,30 @@
         <v>0.302304147465438</v>
       </c>
       <c r="I21" t="n">
-        <v>0.503256261463063</v>
+        <v>0.864218601225231</v>
       </c>
       <c r="J21" t="n">
-        <v>0.864218601225231</v>
+        <v>0.607387140902873</v>
       </c>
       <c r="K21" t="n">
-        <v>0.607387140902873</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3.94712531851025</v>
+        <v>3.44386905704719</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
         <v>0.443957673520405</v>
@@ -1383,33 +1317,30 @@
         <v>0.374193548387097</v>
       </c>
       <c r="I22" t="n">
-        <v>0.508695390721309</v>
+        <v>0.828539441956597</v>
       </c>
       <c r="J22" t="n">
-        <v>0.828539441956597</v>
+        <v>0.920656634746922</v>
       </c>
       <c r="K22" t="n">
-        <v>0.920656634746922</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3.97164220610345</v>
+        <v>3.46294681538214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
         <v>0.328736664549007</v>
@@ -1424,33 +1355,30 @@
         <v>0.326267281105991</v>
       </c>
       <c r="I23" t="n">
-        <v>0.529306353167564</v>
+        <v>0.811624768010798</v>
       </c>
       <c r="J23" t="n">
-        <v>0.811624768010798</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="K23" t="n">
-        <v>0.705882352941177</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3.59529046056893</v>
+        <v>3.06598410740136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
         <v>0.49141170881518</v>
@@ -1465,33 +1393,30 @@
         <v>0.357603686635945</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5265642382513</v>
+        <v>0.834793926247289</v>
       </c>
       <c r="J24" t="n">
-        <v>0.834793926247289</v>
+        <v>0.740082079343365</v>
       </c>
       <c r="K24" t="n">
-        <v>0.740082079343365</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4.78102024409174</v>
+        <v>4.25445600584044</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1506,33 +1431,30 @@
         <v>0.782488479262673</v>
       </c>
       <c r="I25" t="n">
-        <v>0.673889774196458</v>
+        <v>0.926476960855121</v>
       </c>
       <c r="J25" t="n">
-        <v>0.926476960855121</v>
+        <v>0.982216142270862</v>
       </c>
       <c r="K25" t="n">
-        <v>0.982216142270862</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5.63500724312492</v>
+        <v>4.96111746892846</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
         <v>0.30779665194459</v>
@@ -1547,33 +1469,30 @@
         <v>0.297695852534562</v>
       </c>
       <c r="I26" t="n">
-        <v>0.541784178718542</v>
+        <v>0.777046399870775</v>
       </c>
       <c r="J26" t="n">
-        <v>0.777046399870775</v>
+        <v>0.749658002735978</v>
       </c>
       <c r="K26" t="n">
-        <v>0.749658002735978</v>
+        <v>0.3</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3.718500500099</v>
+        <v>3.17671632138046</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
         <v>0.951103440576039</v>
@@ -1588,33 +1507,30 @@
         <v>0.857142857142857</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0.860785541737497</v>
       </c>
       <c r="J27" t="n">
-        <v>0.860785541737497</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5.98136756121419</v>
+        <v>4.98136756121419</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
         <v>0.484730003909347</v>
@@ -1629,33 +1545,30 @@
         <v>0.63778801843318</v>
       </c>
       <c r="I28" t="n">
-        <v>0.555170029165038</v>
+        <v>0.910863905325444</v>
       </c>
       <c r="J28" t="n">
-        <v>0.910863905325444</v>
+        <v>0.931600547195622</v>
       </c>
       <c r="K28" t="n">
-        <v>0.931600547195622</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5.27079075692093</v>
+        <v>4.71562072775589</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
         <v>0.198462616378801</v>
@@ -1670,33 +1583,30 @@
         <v>0.305990783410138</v>
       </c>
       <c r="I29" t="n">
-        <v>0.510388165609309</v>
+        <v>0.829260724536498</v>
       </c>
       <c r="J29" t="n">
-        <v>0.829260724536498</v>
+        <v>0.629274965800274</v>
       </c>
       <c r="K29" t="n">
-        <v>0.629274965800274</v>
+        <v>0.3</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3.98249680227895</v>
+        <v>3.47210863666964</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
         <v>0.542626332377047</v>
@@ -1711,33 +1621,30 @@
         <v>0.311520737327189</v>
       </c>
       <c r="I30" t="n">
-        <v>0.539418904156268</v>
+        <v>0.742160681914606</v>
       </c>
       <c r="J30" t="n">
-        <v>0.742160681914606</v>
+        <v>0.719562243502052</v>
       </c>
       <c r="K30" t="n">
-        <v>0.719562243502052</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.90226742219207</v>
+        <v>3.3628485180358</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
         <v>0.895466085904148</v>
@@ -1752,33 +1659,30 @@
         <v>0.693087557603687</v>
       </c>
       <c r="I31" t="n">
-        <v>0.562837126792748</v>
+        <v>0.950128382381987</v>
       </c>
       <c r="J31" t="n">
-        <v>0.950128382381987</v>
+        <v>0.957592339261286</v>
       </c>
       <c r="K31" t="n">
-        <v>0.957592339261286</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5.54814568475393</v>
+        <v>4.98530855796118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
         <v>0.678004147633902</v>
@@ -1793,33 +1697,30 @@
         <v>0.787096774193548</v>
       </c>
       <c r="I32" t="n">
-        <v>0.603890676207944</v>
+        <v>0.980034633798513</v>
       </c>
       <c r="J32" t="n">
-        <v>0.980034633798513</v>
+        <v>0.953488372093023</v>
       </c>
       <c r="K32" t="n">
-        <v>0.953488372093023</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>6.27629567087717</v>
+        <v>5.67240499466922</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
         <v>0.586125344084507</v>
@@ -1834,19 +1735,16 @@
         <v>0.488479262672811</v>
       </c>
       <c r="I33" t="n">
-        <v>0.576710063441474</v>
+        <v>0.8117617279784</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8117617279784</v>
+        <v>0.708618331053352</v>
       </c>
       <c r="K33" t="n">
-        <v>0.708618331053352</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4.92786965713996</v>
+        <v>4.35115959369848</v>
       </c>
     </row>
   </sheetData>
